--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,7 +41,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effective Java 第三版</t>
+    <t>Linux Shell脚本攻略（第3版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective Java（第3版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,10 +407,33 @@
         <v>44137</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>0.97916666666666663</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99722222222222223</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="13590" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -22,62 +17,384 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective Java（第3版）</t>
   </si>
   <si>
     <t>Linux Shell脚本攻略（第3版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effective Java（第3版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -85,26 +402,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,7 +756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +791,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -362,30 +965,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,43 +1000,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>44137</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="D2" s="2">
-        <v>0.99652777777777779</v>
+        <v>0.996527777777778</v>
       </c>
       <c r="E2" s="2">
-        <v>1.7361111111111112E-2</v>
+        <v>0.0173611111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>44138</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>0.99722222222222223</v>
+        <v>0.997222222222222</v>
       </c>
       <c r="D3" s="2">
-        <v>1.7361111111111112E-2</v>
+        <v>0.0173611111111111</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0833333333333332E-2</v>
+        <v>0.0208333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="2">
+        <v>0.590277777777778</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0243055555555556</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -36,15 +36,18 @@
   <si>
     <t>Linux Shell脚本攻略（第3版）</t>
   </si>
+  <si>
+    <t>用户画像：方法论与工程化解决方法</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -70,6 +73,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -77,32 +134,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,22 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -146,57 +187,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,13 +218,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,163 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +411,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,17 +462,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -479,24 +486,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +521,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,16 +974,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1043,6 +1046,20 @@
       </c>
       <c r="E4" s="2">
         <v>0.0243055555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.629166666666667</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.720833333333333</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0916666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13590" windowHeight="12990"/>
+    <workbookView windowWidth="13350" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,14 +60,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,29 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -120,43 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -166,7 +107,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,23 +150,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +403,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,45 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -503,16 +479,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,140 +521,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -974,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1017,14 +1023,15 @@
         <v>0.996527777777778</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0173611111111111</v>
+        <f>D2-C2</f>
+        <v>0.017361111111111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>44138</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
@@ -1037,7 +1044,9 @@
         <v>0.0208333333333333</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>0.590277777777778</v>
       </c>
@@ -1045,10 +1054,12 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0243055555555556</v>
+        <f>D4-C4</f>
+        <v>0.024305555555555</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1059,10 +1070,33 @@
         <v>0.720833333333333</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0916666666666667</v>
+        <f>D5-C5</f>
+        <v>0.091666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.652777777777778</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.752777777777778</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6-C6</f>
+        <v>0.0999999999999998</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13350" windowHeight="12990"/>
+    <workbookView windowWidth="13590" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,15 +60,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,67 +189,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,53 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,16 +407,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,6 +426,50 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,59 +490,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -509,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,139 +521,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1013,63 +1018,63 @@
       <c r="A2" s="1">
         <v>44137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.979166666666667</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.996527777777778</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>D2-C2</f>
         <v>0.017361111111111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>44138</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.997222222222222</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.0173611111111111</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3">
         <v>0.590277777777778</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.614583333333333</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f>D4-C4</f>
         <v>0.024305555555555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.629166666666667</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.720833333333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f>D5-C5</f>
         <v>0.091666666666666</v>
       </c>
@@ -1078,24 +1083,40 @@
       <c r="A6" s="1">
         <v>44139</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.652777777777778</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.752777777777778</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f>D6-C6</f>
         <v>0.0999999999999998</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>0.786111111111111</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.827777777777778</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7-C7</f>
+        <v>0.0416666666666667</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -46,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -68,14 +68,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,15 +157,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -112,92 +190,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +212,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,19 +260,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,139 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +403,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,6 +449,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -453,205 +503,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,12 +660,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -985,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1033,10 +1028,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>44138</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3">
@@ -1050,8 +1045,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3">
         <v>0.590277777777778</v>
       </c>
@@ -1064,7 +1059,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1109,6 +1104,24 @@
       <c r="E7" s="3">
         <f>D7-C7</f>
         <v>0.0416666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>44140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.425694444444444</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.488194444444444</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8-C8</f>
+        <v>0.0625000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -39,6 +39,9 @@
   <si>
     <t>用户画像：方法论与工程化解决方法</t>
   </si>
+  <si>
+    <t>精通Git（第2版）</t>
+  </si>
 </sst>
 </file>
 
@@ -46,8 +49,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,7 +63,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,81 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,28 +201,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +215,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,175 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,30 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,17 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,16 +471,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,13 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1122,6 +1125,21 @@
       <c r="E8" s="3">
         <f>D8-C8</f>
         <v>0.0625000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.618055555555556</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.672222222222222</v>
+      </c>
+      <c r="E9" s="3">
+        <f>D9-C9</f>
+        <v>0.0541666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -31,16 +31,43 @@
     <t>总时长</t>
   </si>
   <si>
+    <t>具体内容</t>
+  </si>
+  <si>
     <t>Effective Java（第3版）</t>
   </si>
   <si>
     <t>Linux Shell脚本攻略（第3版）</t>
   </si>
   <si>
+    <t>开头到1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.2到1.4</t>
+  </si>
+  <si>
     <t>用户画像：方法论与工程化解决方法</t>
   </si>
   <si>
+    <t>第一章、第二章</t>
+  </si>
+  <si>
+    <t>第三章、第四章部分（到4.4 流式计算标签开发）</t>
+  </si>
+  <si>
+    <t>4.4到4.6.1 TF-IDF词空间向量</t>
+  </si>
+  <si>
+    <t>4.6.2到第五章</t>
+  </si>
+  <si>
     <t>精通Git（第2版）</t>
+  </si>
+  <si>
+    <t>开头到“记录每次更新到仓库”</t>
+  </si>
+  <si>
+    <t>第六章、第七章</t>
   </si>
 </sst>
 </file>
@@ -63,6 +90,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -70,14 +111,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,121 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,23 +454,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,24 +489,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,16 +518,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,137 +551,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +690,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -983,19 +1016,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,13 +1045,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>0.979166666666667</v>
@@ -1029,13 +1066,14 @@
         <f>D2-C2</f>
         <v>0.017361111111111</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>44138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>0.997222222222222</v>
@@ -1046,8 +1084,11 @@
       <c r="E3" s="3">
         <v>0.0208333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -1057,14 +1098,17 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f>D4-C4</f>
+        <f t="shared" ref="E4:E9" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>0.629166666666667</v>
@@ -1073,16 +1117,19 @@
         <v>0.720833333333333</v>
       </c>
       <c r="E5" s="3">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>0.091666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>44139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>0.652777777777778</v>
@@ -1091,11 +1138,14 @@
         <v>0.752777777777778</v>
       </c>
       <c r="E6" s="3">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>0.0999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -1105,16 +1155,19 @@
         <v>0.827777777777778</v>
       </c>
       <c r="E7" s="3">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>0.0416666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
         <v>44140</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>0.425694444444444</v>
@@ -1123,13 +1176,16 @@
         <v>0.488194444444444</v>
       </c>
       <c r="E8" s="3">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>0.0625000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>0.618055555555556</v>
@@ -1138,9 +1194,54 @@
         <v>0.672222222222222</v>
       </c>
       <c r="E9" s="3">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>0.0541666666666663</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.754166666666667</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10-C10</f>
+        <v>0.0708333333333336</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>第六章、第七章</t>
+  </si>
+  <si>
+    <t>第八章</t>
+  </si>
+  <si>
+    <t>##记录每次记录到仓库</t>
   </si>
 </sst>
 </file>
@@ -75,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,26 +103,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -139,6 +132,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -163,9 +193,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,22 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,29 +236,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,25 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,157 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,15 +460,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -472,8 +469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +486,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,170 +539,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,10 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,7 +1021,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1098,7 +1100,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E9" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E11" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1107,7 +1109,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
@@ -1163,10 +1165,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>44140</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3">
@@ -1183,8 +1185,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
@@ -1201,8 +1204,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3">
@@ -1212,18 +1216,48 @@
         <v>0.754166666666667</v>
       </c>
       <c r="E10" s="3">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>0.0708333333333336</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="4"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>0.781944444444444</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.802777777777778</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0208333333333338</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.804861111111111</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12-C12</f>
+        <v>0.0284722222222223</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" s="4"/>
@@ -1244,11 +1278,13 @@
       <c r="F18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -64,7 +64,7 @@
     <t>精通Git（第2版）</t>
   </si>
   <si>
-    <t>开头到“记录每次更新到仓库”</t>
+    <t>开头到“##记录每次更新到仓库”</t>
   </si>
   <si>
     <t>第六章、第七章</t>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>##记录每次记录到仓库</t>
+  </si>
+  <si>
+    <t>"###提交更新"到"#Git基础"结尾</t>
+  </si>
+  <si>
+    <t>“#Git分支”到“#Git与其他系统”</t>
   </si>
 </sst>
 </file>
@@ -81,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +101,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -102,16 +123,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +185,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,14 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,83 +244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,73 +254,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,109 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,16 +467,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,26 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,16 +521,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,31 +563,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,104 +599,101 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,6 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1020,8 +1027,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1100,7 +1107,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E11" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E13" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1252,18 +1259,49 @@
         <v>0.833333333333333</v>
       </c>
       <c r="E12" s="3">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>0.0284722222222223</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="4"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>44141</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.503472222222222</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0812500000000002</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>0.606944444444444</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.734027777777778</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14-C14</f>
+        <v>0.127083333333334</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" s="4"/>
@@ -1278,13 +1316,14 @@
       <c r="F18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>“#Git分支”到“#Git与其他系统”</t>
+  </si>
+  <si>
+    <t>#Git内部原理</t>
   </si>
 </sst>
 </file>
@@ -88,8 +91,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -102,6 +105,65 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -109,25 +171,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,15 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,85 +234,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,6 +257,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,175 +323,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +448,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,37 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,26 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,149 +566,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1025,10 +1030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1107,7 +1112,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E13" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E14" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1267,7 +1272,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>44141</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1287,7 +1292,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
         <v>0.606944444444444</v>
@@ -1296,34 +1302,67 @@
         <v>0.734027777777778</v>
       </c>
       <c r="E14" s="3">
-        <f>D14-C14</f>
+        <f t="shared" si="0"/>
         <v>0.127083333333334</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="6:6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>0.804166666666667</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15-C15</f>
+        <v>0.00833333333333297</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="2:6">
+      <c r="B17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="2:6">
+      <c r="B18" s="5"/>
       <c r="F18" s="4"/>
     </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>#Git内部原理</t>
+  </si>
+  <si>
+    <t>“1.4使用函数添加环境变量”到“1.11调试脚本”</t>
+  </si>
+  <si>
+    <t>“1.12函数与参数”到“2.4查找并列出文件”</t>
   </si>
 </sst>
 </file>
@@ -90,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +107,65 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,83 +178,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +217,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,22 +249,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,32 +461,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,18 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +507,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,16 +536,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,16 +572,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,115 +590,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1112,7 +1118,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E14" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E16" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1319,50 +1325,112 @@
         <v>0.8125</v>
       </c>
       <c r="E15" s="3">
-        <f>D15-C15</f>
+        <f t="shared" si="0"/>
         <v>0.00833333333333297</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.702777777777778</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.751388888888889</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0486111111111109</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>0.771527777777778</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.822916666666667</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17-C17</f>
+        <v>0.0513888888888886</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
       <c r="B23" s="5"/>
     </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\learning-platform\学习笔记存储文件夹\知识点原材料\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="12990"/>
+    <workbookView windowWidth="13590" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -97,6 +92,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第1条</t>
     </r>
     <r>
@@ -104,20 +106,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 用静态工厂方法替代构造器</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2条 遇到多个构造器参数时要考虑使用构建器 到 第5条 优先考虑依赖注入来引用资源</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,30 +135,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,11 +481,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,30 +739,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -454,26 +1058,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
     <col min="6" max="6" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44137</v>
       </c>
@@ -501,300 +1105,300 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>0.97916666666666696</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="D2" s="3">
-        <v>0.99652777777777801</v>
+        <v>0.996527777777778</v>
       </c>
       <c r="E2" s="3">
         <f>D2-C2</f>
-        <v>1.7361111111111049E-2</v>
+        <v>0.017361111111111</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>44138</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>0.99722222222222201</v>
+        <v>0.997222222222222</v>
       </c>
       <c r="D3" s="3">
-        <v>1.7361111111111101E-2</v>
+        <v>0.0173611111111111</v>
       </c>
       <c r="E3" s="3">
-        <v>2.0833333333333301E-2</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>0.59027777777777801</v>
+        <v>0.590277777777778</v>
       </c>
       <c r="D4" s="3">
-        <v>0.61458333333333304</v>
+        <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E16" si="0">D4-C4</f>
-        <v>2.4305555555555025E-2</v>
+        <f t="shared" ref="E4:E19" si="0">D4-C4</f>
+        <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>0.62916666666666698</v>
+        <v>0.629166666666667</v>
       </c>
       <c r="D5" s="3">
-        <v>0.72083333333333299</v>
+        <v>0.720833333333333</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>9.1666666666666008E-2</v>
+        <v>0.091666666666666</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>44139</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.652777777777778</v>
       </c>
       <c r="D6" s="3">
-        <v>0.75277777777777799</v>
+        <v>0.752777777777778</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>0.78611111111111098</v>
+        <v>0.786111111111111</v>
       </c>
       <c r="D7" s="3">
-        <v>0.82777777777777795</v>
+        <v>0.827777777777778</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>4.1666666666666963E-2</v>
+        <v>0.041666666666667</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>44140</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>0.42569444444444399</v>
+        <v>0.425694444444444</v>
       </c>
       <c r="D8" s="3">
-        <v>0.48819444444444399</v>
+        <v>0.488194444444444</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>0.61805555555555602</v>
+        <v>0.618055555555556</v>
       </c>
       <c r="D9" s="3">
-        <v>0.67222222222222205</v>
+        <v>0.672222222222222</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>5.416666666666603E-2</v>
+        <v>0.054166666666666</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>0.68333333333333302</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="D10" s="3">
-        <v>0.75416666666666698</v>
+        <v>0.754166666666667</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>7.083333333333397E-2</v>
+        <v>0.070833333333334</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3">
         <v>0.781944444444444</v>
       </c>
       <c r="D11" s="3">
-        <v>0.80277777777777803</v>
+        <v>0.802777777777778</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>2.0833333333334036E-2</v>
+        <v>0.020833333333334</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>0.80486111111111103</v>
+        <v>0.804861111111111</v>
       </c>
       <c r="D12" s="3">
-        <v>0.83333333333333304</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>2.847222222222201E-2</v>
+        <v>0.028472222222222</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>44141</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>0.422222222222222</v>
       </c>
       <c r="D13" s="3">
-        <v>0.50347222222222199</v>
+        <v>0.503472222222222</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>8.1249999999999989E-2</v>
+        <v>0.08125</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>0.60694444444444395</v>
+        <v>0.606944444444444</v>
       </c>
       <c r="D14" s="3">
-        <v>0.73402777777777795</v>
+        <v>0.734027777777778</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>0.12708333333333399</v>
+        <v>0.127083333333334</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>0.80416666666666703</v>
+        <v>0.804166666666667</v>
       </c>
       <c r="D15" s="3">
         <v>0.8125</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>8.3333333333329707E-3</v>
+        <v>0.00833333333333297</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>44142</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3">
-        <v>0.70277777777777795</v>
+        <v>0.702777777777778</v>
       </c>
       <c r="D16" s="3">
-        <v>0.75138888888888899</v>
+        <v>0.751388888888889</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>4.8611111111111049E-2</v>
+        <v>0.048611111111111</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="3">
-        <v>0.77152777777777803</v>
+        <v>0.771527777777778</v>
       </c>
       <c r="D17" s="3">
-        <v>0.82291666666666696</v>
+        <v>0.822916666666667</v>
       </c>
       <c r="E17" s="3">
-        <f>D17-C17</f>
-        <v>5.1388888888888928E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.0513888888888889</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>44143</v>
       </c>
@@ -802,61 +1406,78 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>0.93055555555555547</v>
+        <v>0.930555555555555</v>
       </c>
       <c r="D18" s="3">
-        <v>0.9916666666666667</v>
+        <v>0.991666666666667</v>
       </c>
       <c r="E18" s="3">
-        <f>D18-C18</f>
-        <v>6.1111111111111227E-2</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <f t="shared" si="0"/>
+        <v>0.061111111111112</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.404861111111111</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.509722222222222</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.104861111111111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="2"/>
     </row>
   </sheetData>
@@ -872,8 +1493,8 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -115,6 +115,9 @@
   <si>
     <t>第2条 遇到多个构造器参数时要考虑使用构建器 到 第5条 优先考虑依赖注入来引用资源</t>
   </si>
+  <si>
+    <t>第6条 避免创建不必要的对象 到 第8条 避免使用终结方法和清除方法</t>
+  </si>
 </sst>
 </file>
 
@@ -122,9 +125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,6 +139,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -143,35 +198,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,79 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,19 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,163 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +482,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,24 +529,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +565,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,31 +582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1146,7 +1149,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E19" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E20" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1440,9 +1443,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>0.571527777777778</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.636111111111111</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0645833333333331</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2"/>
@@ -1481,17 +1497,19 @@
       <c r="A31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -118,6 +118,9 @@
   <si>
     <t>第6条 避免创建不必要的对象 到 第8条 避免使用终结方法和清除方法</t>
   </si>
+  <si>
+    <t>第9条 try-with-resources优先于try-finally</t>
+  </si>
 </sst>
 </file>
 
@@ -126,8 +129,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -139,12 +142,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -152,84 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,32 +246,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +269,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -291,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,30 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,30 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,8 +521,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,145 +591,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1149,7 +1152,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E20" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E21" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1460,9 +1463,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>0.775</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.790277777777778</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0152777777777777</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2"/>
@@ -1503,13 +1519,13 @@
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
+++ b/学习笔记存储文件夹/知识点原材料/日常学习时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13590" windowHeight="12990"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -121,16 +121,37 @@
   <si>
     <t>第9条 try-with-resources优先于try-finally</t>
   </si>
+  <si>
+    <t>第10条 覆盖equals时请遵守通用约定</t>
+  </si>
+  <si>
+    <t>第11条 覆盖equals时总要覆盖hashCode</t>
+  </si>
+  <si>
+    <t>推荐系统实践</t>
+  </si>
+  <si>
+    <t>第1章 好的推荐系统</t>
+  </si>
+  <si>
+    <t>2.1 用户行为数据简介 到 2.2 用户行为分析</t>
+  </si>
+  <si>
+    <t>2.3 实验设计和算法评测 到 2.4.1 基于用户的协同过滤算法</t>
+  </si>
+  <si>
+    <t>第2章 利用用户行为数据</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,12 +163,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -163,8 +223,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,14 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -195,60 +264,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,24 +292,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,21 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,41 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,16 +558,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,137 +624,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1152,7 +1170,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E21" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E27" si="0">D4-C4</f>
         <v>0.024305555555555</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1480,52 +1498,215 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.686805555555556</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.765277777777778</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0784722222222217</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <v>0.793055555555556</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.818055555555556</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0249999999999996</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.663194444444444</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.7625</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.099305555555556</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>0.793055555555556</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.821527777777778</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0284722222222218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.446527777777778</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.502777777777778</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0562499999999997</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.173611111111111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
